--- a/資料集/House_name.xlsx
+++ b/資料集/House_name.xlsx
@@ -8,20 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Database Project1222\資料集\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8F2B5B-70EB-47F6-83BE-2C0FEBEF76B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EF1BEE-D7AA-4002-B419-ABBD582C1D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="House" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" r:id="rId2"/>
+    <sheet name="Member" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="642">
   <si>
     <t>KH1</t>
   </si>
@@ -35,9 +48,6 @@
     <t>0981236342</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 17:49</t>
-  </si>
-  <si>
     <t>KH2</t>
   </si>
   <si>
@@ -50,9 +60,6 @@
     <t>0987623525</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 16:34</t>
-  </si>
-  <si>
     <t>KH3</t>
   </si>
   <si>
@@ -65,9 +72,6 @@
     <t>0933587497</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 15:18</t>
-  </si>
-  <si>
     <t>KH4</t>
   </si>
   <si>
@@ -80,9 +84,6 @@
     <t>0988611677</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 14:38</t>
-  </si>
-  <si>
     <t>KH5</t>
   </si>
   <si>
@@ -95,9 +96,6 @@
     <t>0982730990</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 14:17</t>
-  </si>
-  <si>
     <t>KH6</t>
   </si>
   <si>
@@ -110,9 +108,6 @@
     <t>0916149565</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 13:52</t>
-  </si>
-  <si>
     <t>KH7</t>
   </si>
   <si>
@@ -125,9 +120,6 @@
     <t>0972909122</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 09:28</t>
-  </si>
-  <si>
     <t>KH8</t>
   </si>
   <si>
@@ -140,9 +132,6 @@
     <t>0975667726</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 09:15</t>
-  </si>
-  <si>
     <t>KH9</t>
   </si>
   <si>
@@ -155,9 +144,6 @@
     <t>0938586985</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 00:00</t>
-  </si>
-  <si>
     <t>KH10</t>
   </si>
   <si>
@@ -170,9 +156,6 @@
     <t>0917358765</t>
   </si>
   <si>
-    <t>更新日期：2024/04/25 19:35</t>
-  </si>
-  <si>
     <t>KH11</t>
   </si>
   <si>
@@ -185,9 +168,6 @@
     <t>0975515834</t>
   </si>
   <si>
-    <t>更新日期：2024/04/25 19:27</t>
-  </si>
-  <si>
     <t>KH12</t>
   </si>
   <si>
@@ -200,9 +180,6 @@
     <t>0903521434</t>
   </si>
   <si>
-    <t>更新日期：2024/04/25 19:04</t>
-  </si>
-  <si>
     <t>KH13</t>
   </si>
   <si>
@@ -215,9 +192,6 @@
     <t>0953606956</t>
   </si>
   <si>
-    <t>更新日期：2024/04/25 18:56</t>
-  </si>
-  <si>
     <t>KH14</t>
   </si>
   <si>
@@ -230,9 +204,6 @@
     <t>0980881841</t>
   </si>
   <si>
-    <t>更新日期：2024/04/25 16:10</t>
-  </si>
-  <si>
     <t>KH15</t>
   </si>
   <si>
@@ -245,9 +216,6 @@
     <t>0973123280</t>
   </si>
   <si>
-    <t>更新日期：2024/04/25 14:16</t>
-  </si>
-  <si>
     <t>KH16</t>
   </si>
   <si>
@@ -260,9 +228,6 @@
     <t>0938993766</t>
   </si>
   <si>
-    <t>更新日期：2024/04/25 12:44</t>
-  </si>
-  <si>
     <t>KH17</t>
   </si>
   <si>
@@ -275,9 +240,6 @@
     <t>0984108836</t>
   </si>
   <si>
-    <t>更新日期：2024/04/25 11:57</t>
-  </si>
-  <si>
     <t>KH18</t>
   </si>
   <si>
@@ -290,9 +252,6 @@
     <t>0922223090</t>
   </si>
   <si>
-    <t>更新日期：2024/04/25 10:50</t>
-  </si>
-  <si>
     <t>KH19</t>
   </si>
   <si>
@@ -305,9 +264,6 @@
     <t>0975122192</t>
   </si>
   <si>
-    <t>更新日期：2024/04/25 09:19</t>
-  </si>
-  <si>
     <t>KH20</t>
   </si>
   <si>
@@ -320,9 +276,6 @@
     <t>0972782032</t>
   </si>
   <si>
-    <t>更新日期：2024/04/25 00:00</t>
-  </si>
-  <si>
     <t>NT21</t>
   </si>
   <si>
@@ -335,9 +288,6 @@
     <t>0983355714</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 18:03</t>
-  </si>
-  <si>
     <t>NT22</t>
   </si>
   <si>
@@ -350,9 +300,6 @@
     <t>0920593114</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 17:01</t>
-  </si>
-  <si>
     <t>NT23</t>
   </si>
   <si>
@@ -365,9 +312,6 @@
     <t>0988883329</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 16:33</t>
-  </si>
-  <si>
     <t>NT24</t>
   </si>
   <si>
@@ -380,9 +324,6 @@
     <t>0910857717</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 15:44</t>
-  </si>
-  <si>
     <t>NT25</t>
   </si>
   <si>
@@ -407,9 +348,6 @@
     <t>0979002286</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 13:38</t>
-  </si>
-  <si>
     <t>NT27</t>
   </si>
   <si>
@@ -422,9 +360,6 @@
     <t>0977696664</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 11:59</t>
-  </si>
-  <si>
     <t>NT28</t>
   </si>
   <si>
@@ -437,9 +372,6 @@
     <t>0922390349</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 11:40</t>
-  </si>
-  <si>
     <t>NT29</t>
   </si>
   <si>
@@ -452,9 +384,6 @@
     <t>0978035353</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 11:38</t>
-  </si>
-  <si>
     <t>NT30</t>
   </si>
   <si>
@@ -467,9 +396,6 @@
     <t>0970976001</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 10:18</t>
-  </si>
-  <si>
     <t>NT31</t>
   </si>
   <si>
@@ -482,9 +408,6 @@
     <t>0975195384</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 10:06</t>
-  </si>
-  <si>
     <t>NT32</t>
   </si>
   <si>
@@ -497,9 +420,6 @@
     <t>0928461059</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 09:47</t>
-  </si>
-  <si>
     <t>NT33</t>
   </si>
   <si>
@@ -512,9 +432,6 @@
     <t>0982885018</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 09:10</t>
-  </si>
-  <si>
     <t>NT34</t>
   </si>
   <si>
@@ -527,9 +444,6 @@
     <t>0928403212</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 09:07</t>
-  </si>
-  <si>
     <t>NT35</t>
   </si>
   <si>
@@ -542,9 +456,6 @@
     <t>0982013553</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 00:17</t>
-  </si>
-  <si>
     <t>NT36</t>
   </si>
   <si>
@@ -557,9 +468,6 @@
     <t>0900613023</t>
   </si>
   <si>
-    <t>更新日期：2024/04/25 21:01</t>
-  </si>
-  <si>
     <t>NT37</t>
   </si>
   <si>
@@ -572,9 +480,6 @@
     <t>0928575987</t>
   </si>
   <si>
-    <t>更新日期：2024/04/25 20:53</t>
-  </si>
-  <si>
     <t>NT38</t>
   </si>
   <si>
@@ -587,9 +492,6 @@
     <t>0930226715</t>
   </si>
   <si>
-    <t>更新日期：2024/04/25 20:30</t>
-  </si>
-  <si>
     <t>NT39</t>
   </si>
   <si>
@@ -602,9 +504,6 @@
     <t>0912728470</t>
   </si>
   <si>
-    <t>更新日期：2024/04/25 17:40</t>
-  </si>
-  <si>
     <t>NT40</t>
   </si>
   <si>
@@ -617,9 +516,6 @@
     <t>0931363228</t>
   </si>
   <si>
-    <t>更新日期：2024/04/25 16:11</t>
-  </si>
-  <si>
     <t>復興北路昇揚面寬住辦</t>
   </si>
   <si>
@@ -629,9 +525,6 @@
     <t>0988372840</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 18:04</t>
-  </si>
-  <si>
     <t>柏園山莊稀有景觀別墅</t>
   </si>
   <si>
@@ -641,9 +534,6 @@
     <t>0988653888</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 17:54</t>
-  </si>
-  <si>
     <t>【推薦】ｙｅｓ世貿高樓層</t>
   </si>
   <si>
@@ -653,9 +543,6 @@
     <t>0985273823</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 17:52</t>
-  </si>
-  <si>
     <t>永大花園大廈３房</t>
   </si>
   <si>
@@ -665,9 +552,6 @@
     <t>0917689542</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 17:46</t>
-  </si>
-  <si>
     <t>士林劍潭管理辦公</t>
   </si>
   <si>
@@ -677,9 +561,6 @@
     <t>0910515275</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 17:34</t>
-  </si>
-  <si>
     <t>台大新生活稀有釋出</t>
   </si>
   <si>
@@ -689,9 +570,6 @@
     <t>0987768338</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 17:31</t>
-  </si>
-  <si>
     <t>捷運旁～有天有地森活透天</t>
   </si>
   <si>
@@ -701,9 +579,6 @@
     <t>0920007183</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 17:30</t>
-  </si>
-  <si>
     <t>翔譽１０１精品宅</t>
   </si>
   <si>
@@ -713,9 +588,6 @@
     <t>0978973782</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 16:57</t>
-  </si>
-  <si>
     <t>富錦林蔭亮麗店辦</t>
   </si>
   <si>
@@ -725,9 +597,6 @@
     <t>0930959555</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 16:45</t>
-  </si>
-  <si>
     <t>基隆路近喬治商職高樓Ａ</t>
   </si>
   <si>
@@ -737,18 +606,12 @@
     <t>0912865377</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 16:38</t>
-  </si>
-  <si>
     <t>基隆路近喬治商職辦公Ｂ</t>
   </si>
   <si>
     <t>陽明山清新景觀泳池別墅</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 16:29</t>
-  </si>
-  <si>
     <t>正復興南路面寬金店</t>
   </si>
   <si>
@@ -758,9 +621,6 @@
     <t>0921881917</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 16:26</t>
-  </si>
-  <si>
     <t>近芝山捷運店面珠寶盒</t>
   </si>
   <si>
@@ -770,9 +630,6 @@
     <t>0932253766</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 16:01</t>
-  </si>
-  <si>
     <t>⭐信義安和．坡平電梯四房</t>
   </si>
   <si>
@@ -782,9 +639,6 @@
     <t>0911848813</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 15:32</t>
-  </si>
-  <si>
     <t>士林太稀有金店面</t>
   </si>
   <si>
@@ -794,9 +648,6 @@
     <t>0968857077</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 15:12</t>
-  </si>
-  <si>
     <t>中山捷運一樓住辦</t>
   </si>
   <si>
@@ -806,9 +657,6 @@
     <t>0909343191</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 15:04</t>
-  </si>
-  <si>
     <t>”全新”心美齊三房車位</t>
   </si>
   <si>
@@ -818,9 +666,6 @@
     <t>0921455208</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 14:09</t>
-  </si>
-  <si>
     <t>科技大樓高樓管理辦公</t>
   </si>
   <si>
@@ -830,9 +675,6 @@
     <t>0988100122</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 13:58</t>
-  </si>
-  <si>
     <t>中山近晶華機能屋</t>
   </si>
   <si>
@@ -851,9 +693,6 @@
     <t>0989385977</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 18:20</t>
-  </si>
-  <si>
     <t>市政阿曼三房平車</t>
   </si>
   <si>
@@ -872,9 +711,6 @@
     <t>0939828381</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 15:35</t>
-  </si>
-  <si>
     <t>府前路朝南透天一樓店面</t>
   </si>
   <si>
@@ -884,9 +720,6 @@
     <t>0931998090</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 14:48</t>
-  </si>
-  <si>
     <t>【綠海】智能居家兩房平車</t>
   </si>
   <si>
@@ -896,9 +729,6 @@
     <t>0938146290</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 13:42</t>
-  </si>
-  <si>
     <t>湯山溫馨三房平車有家電</t>
   </si>
   <si>
@@ -908,9 +738,6 @@
     <t>0952811182</t>
   </si>
   <si>
-    <t>更新日期：2024/04/25 19:51</t>
-  </si>
-  <si>
     <t>安中路小資創業店面</t>
   </si>
   <si>
@@ -920,9 +747,6 @@
     <t>0923203361</t>
   </si>
   <si>
-    <t>更新日期：2024/04/25 14:19</t>
-  </si>
-  <si>
     <t>綠海都心面公園３房平車</t>
   </si>
   <si>
@@ -932,9 +756,6 @@
     <t>0988101424</t>
   </si>
   <si>
-    <t>更新日期：2024/04/25 13:40</t>
-  </si>
-  <si>
     <t>文南路好規劃大空間</t>
   </si>
   <si>
@@ -944,9 +765,6 @@
     <t>0912147161</t>
   </si>
   <si>
-    <t>更新日期：2024/04/24 17:38</t>
-  </si>
-  <si>
     <t>仁愛街優質店住</t>
   </si>
   <si>
@@ -956,9 +774,6 @@
     <t>0978566821</t>
   </si>
   <si>
-    <t>更新日期：2024/04/24 17:29</t>
-  </si>
-  <si>
     <t>成功路近火車站二樓</t>
   </si>
   <si>
@@ -968,9 +783,6 @@
     <t>0917117758</t>
   </si>
   <si>
-    <t>更新日期：2024/04/24 15:53</t>
-  </si>
-  <si>
     <t>臨安路大面寬角窗店面</t>
   </si>
   <si>
@@ -980,9 +792,6 @@
     <t>0929008223</t>
   </si>
   <si>
-    <t>更新日期：2024/04/24 13:34</t>
-  </si>
-  <si>
     <t>觀雲乙區朝南採光三房平車</t>
   </si>
   <si>
@@ -992,9 +801,6 @@
     <t>0963538980</t>
   </si>
   <si>
-    <t>更新日期：2024/04/24 11:32</t>
-  </si>
-  <si>
     <t>永大路高ＣＰ臨路邊透天</t>
   </si>
   <si>
@@ -1004,9 +810,6 @@
     <t>0938931028</t>
   </si>
   <si>
-    <t>更新日期：2024/04/24 08:42</t>
-  </si>
-  <si>
     <t>商圈大面寬店住</t>
   </si>
   <si>
@@ -1016,9 +819,6 @@
     <t>0917057144</t>
   </si>
   <si>
-    <t>更新日期：2024/04/23 17:31</t>
-  </si>
-  <si>
     <t>水交社高樓層三房平車</t>
   </si>
   <si>
@@ -1028,9 +828,6 @@
     <t>0909889937</t>
   </si>
   <si>
-    <t>更新日期：2024/04/23 16:27</t>
-  </si>
-  <si>
     <t>陽光樹５樓全新商務宅</t>
   </si>
   <si>
@@ -1040,9 +837,6 @@
     <t>0965710170</t>
   </si>
   <si>
-    <t>更新日期：2024/04/23 13:19</t>
-  </si>
-  <si>
     <t>陽光樹１２樓全新商務宅</t>
   </si>
   <si>
@@ -1055,9 +849,6 @@
     <t>0921214224</t>
   </si>
   <si>
-    <t>更新日期：2024/04/23 11:37</t>
-  </si>
-  <si>
     <t>前後公園多套房店住</t>
   </si>
   <si>
@@ -1067,9 +858,6 @@
     <t>0975268662</t>
   </si>
   <si>
-    <t>更新日期：2024/04/23 10:10</t>
-  </si>
-  <si>
     <t>東方明珠精美兩房車位</t>
   </si>
   <si>
@@ -1079,9 +867,6 @@
     <t>0970190789</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 15:21</t>
-  </si>
-  <si>
     <t>仁風國宅三房美屋</t>
   </si>
   <si>
@@ -1091,9 +876,6 @@
     <t>0939833565</t>
   </si>
   <si>
-    <t>更新日期：2024/04/26 11:00</t>
-  </si>
-  <si>
     <t>近園區高樓三房平面車位</t>
   </si>
   <si>
@@ -1103,9 +885,6 @@
     <t>0927638807</t>
   </si>
   <si>
-    <t>更新日期：2024/04/25 13:19</t>
-  </si>
-  <si>
     <t>市中心獨棟３５０坪店辦</t>
   </si>
   <si>
@@ -1115,9 +894,6 @@
     <t>0955182916</t>
   </si>
   <si>
-    <t>更新日期：2024/04/25 10:32</t>
-  </si>
-  <si>
     <t>新竹車站辦公大樓</t>
   </si>
   <si>
@@ -1127,9 +903,6 @@
     <t>0919380669</t>
   </si>
   <si>
-    <t>更新日期：2024/04/23 15:44</t>
-  </si>
-  <si>
     <t>中正路舒適電梯套房Ａ</t>
   </si>
   <si>
@@ -1139,9 +912,6 @@
     <t>0963073910</t>
   </si>
   <si>
-    <t>更新日期：2024/04/23 15:10</t>
-  </si>
-  <si>
     <t>中正路舒適電梯套房Ｂ</t>
   </si>
   <si>
@@ -1154,9 +924,6 @@
     <t>0926899347</t>
   </si>
   <si>
-    <t>更新日期：2024/04/23 13:36</t>
-  </si>
-  <si>
     <t>仁愛街１樓店面</t>
   </si>
   <si>
@@ -1166,9 +933,6 @@
     <t>0988062156</t>
   </si>
   <si>
-    <t>更新日期：2024/04/23 13:20</t>
-  </si>
-  <si>
     <t>瑞典綠洲三房平面車位</t>
   </si>
   <si>
@@ -1178,9 +942,6 @@
     <t>0978749521</t>
   </si>
   <si>
-    <t>更新日期：2024/04/23 00:00</t>
-  </si>
-  <si>
     <t>東京中城高品質住宅</t>
   </si>
   <si>
@@ -1193,21 +954,12 @@
     <t>0980789493</t>
   </si>
   <si>
-    <t>更新日期：2024/04/22 14:30</t>
-  </si>
-  <si>
     <t>近全聯漂亮套房</t>
   </si>
   <si>
-    <t>更新日期：2024/04/22 11:41</t>
-  </si>
-  <si>
     <t>近園區視野美三房平面車位</t>
   </si>
   <si>
-    <t>更新日期：2024/04/21 22:02</t>
-  </si>
-  <si>
     <t>孟竹國宅三房</t>
   </si>
   <si>
@@ -1217,9 +969,6 @@
     <t>0985081181</t>
   </si>
   <si>
-    <t>更新日期：2024/04/21 15:54</t>
-  </si>
-  <si>
     <t>熱騰騰全新出爐博苑來了</t>
   </si>
   <si>
@@ -1229,15 +978,9 @@
     <t>0988646728</t>
   </si>
   <si>
-    <t>更新日期：2024/04/21 13:14</t>
-  </si>
-  <si>
     <t>大塊文章公園溫馨四房</t>
   </si>
   <si>
-    <t>更新日期：2024/04/21 00:00</t>
-  </si>
-  <si>
     <t>全新質感設計３房含平車</t>
   </si>
   <si>
@@ -1247,15 +990,9 @@
     <t>0925105535</t>
   </si>
   <si>
-    <t>更新日期：2024/04/19 00:00</t>
-  </si>
-  <si>
     <t>價格好談拜託來租致家人</t>
   </si>
   <si>
-    <t>更新日期：2024/04/17 14:05</t>
-  </si>
-  <si>
     <t>最愛大樓精美空間</t>
   </si>
   <si>
@@ -1265,9 +1002,6 @@
     <t>0986605071</t>
   </si>
   <si>
-    <t>更新日期：2024/04/15 18:03</t>
-  </si>
-  <si>
     <t>福五街稀有一樓歡迎參考</t>
   </si>
   <si>
@@ -1277,9 +1011,6 @@
     <t>0975396663</t>
   </si>
   <si>
-    <t>更新日期：2024/03/30 09:46</t>
-  </si>
-  <si>
     <t>TP1</t>
   </si>
   <si>
@@ -1461,13 +1192,784 @@
   </si>
   <si>
     <t>KL61</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>user3</t>
+  </si>
+  <si>
+    <t>user4</t>
+  </si>
+  <si>
+    <t>user5</t>
+  </si>
+  <si>
+    <t>user6</t>
+  </si>
+  <si>
+    <t>user7</t>
+  </si>
+  <si>
+    <t>user8</t>
+  </si>
+  <si>
+    <t>user9</t>
+  </si>
+  <si>
+    <t>user10</t>
+  </si>
+  <si>
+    <t>user11</t>
+  </si>
+  <si>
+    <t>user12</t>
+  </si>
+  <si>
+    <t>user13</t>
+  </si>
+  <si>
+    <t>user14</t>
+  </si>
+  <si>
+    <t>user15</t>
+  </si>
+  <si>
+    <t>user16</t>
+  </si>
+  <si>
+    <t>user17</t>
+  </si>
+  <si>
+    <t>user18</t>
+  </si>
+  <si>
+    <t>user19</t>
+  </si>
+  <si>
+    <t>user20</t>
+  </si>
+  <si>
+    <t>user21</t>
+  </si>
+  <si>
+    <t>user22</t>
+  </si>
+  <si>
+    <t>user23</t>
+  </si>
+  <si>
+    <t>user24</t>
+  </si>
+  <si>
+    <t>user25</t>
+  </si>
+  <si>
+    <t>user26</t>
+  </si>
+  <si>
+    <t>user27</t>
+  </si>
+  <si>
+    <t>user28</t>
+  </si>
+  <si>
+    <t>user29</t>
+  </si>
+  <si>
+    <t>user30</t>
+  </si>
+  <si>
+    <t>user31</t>
+  </si>
+  <si>
+    <t>user32</t>
+  </si>
+  <si>
+    <t>user33</t>
+  </si>
+  <si>
+    <t>user34</t>
+  </si>
+  <si>
+    <t>user35</t>
+  </si>
+  <si>
+    <t>user36</t>
+  </si>
+  <si>
+    <t>user37</t>
+  </si>
+  <si>
+    <t>user38</t>
+  </si>
+  <si>
+    <t>user39</t>
+  </si>
+  <si>
+    <t>user40</t>
+  </si>
+  <si>
+    <t>user41</t>
+  </si>
+  <si>
+    <t>user42</t>
+  </si>
+  <si>
+    <t>user43</t>
+  </si>
+  <si>
+    <t>user44</t>
+  </si>
+  <si>
+    <t>user45</t>
+  </si>
+  <si>
+    <t>user46</t>
+  </si>
+  <si>
+    <t>user47</t>
+  </si>
+  <si>
+    <t>user48</t>
+  </si>
+  <si>
+    <t>user49</t>
+  </si>
+  <si>
+    <t>user50</t>
+  </si>
+  <si>
+    <t>user51</t>
+  </si>
+  <si>
+    <t>user52</t>
+  </si>
+  <si>
+    <t>user53</t>
+  </si>
+  <si>
+    <t>user54</t>
+  </si>
+  <si>
+    <t>user55</t>
+  </si>
+  <si>
+    <t>user56</t>
+  </si>
+  <si>
+    <t>user57</t>
+  </si>
+  <si>
+    <t>user58</t>
+  </si>
+  <si>
+    <t>user59</t>
+  </si>
+  <si>
+    <t>user60</t>
+  </si>
+  <si>
+    <t>user61</t>
+  </si>
+  <si>
+    <t>user62</t>
+  </si>
+  <si>
+    <t>user63</t>
+  </si>
+  <si>
+    <t>user64</t>
+  </si>
+  <si>
+    <t>user65</t>
+  </si>
+  <si>
+    <t>user66</t>
+  </si>
+  <si>
+    <t>user67</t>
+  </si>
+  <si>
+    <t>user68</t>
+  </si>
+  <si>
+    <t>user69</t>
+  </si>
+  <si>
+    <t>user70</t>
+  </si>
+  <si>
+    <t>user71</t>
+  </si>
+  <si>
+    <t>user72</t>
+  </si>
+  <si>
+    <t>user73</t>
+  </si>
+  <si>
+    <t>user74</t>
+  </si>
+  <si>
+    <t>user75</t>
+  </si>
+  <si>
+    <t>user76</t>
+  </si>
+  <si>
+    <t>user77</t>
+  </si>
+  <si>
+    <t>user78</t>
+  </si>
+  <si>
+    <t>user79</t>
+  </si>
+  <si>
+    <t>user80</t>
+  </si>
+  <si>
+    <t>user81</t>
+  </si>
+  <si>
+    <t>user82</t>
+  </si>
+  <si>
+    <t>user83</t>
+  </si>
+  <si>
+    <t>user84</t>
+  </si>
+  <si>
+    <t>user85</t>
+  </si>
+  <si>
+    <t>user86</t>
+  </si>
+  <si>
+    <t>user87</t>
+  </si>
+  <si>
+    <t>user88</t>
+  </si>
+  <si>
+    <t>user89</t>
+  </si>
+  <si>
+    <t>user90</t>
+  </si>
+  <si>
+    <t>user91</t>
+  </si>
+  <si>
+    <t>user92</t>
+  </si>
+  <si>
+    <t>user93</t>
+  </si>
+  <si>
+    <t>user94</t>
+  </si>
+  <si>
+    <t>user95</t>
+  </si>
+  <si>
+    <t>user96</t>
+  </si>
+  <si>
+    <t>user97</t>
+  </si>
+  <si>
+    <t>user98</t>
+  </si>
+  <si>
+    <t>user99</t>
+  </si>
+  <si>
+    <t>user100</t>
+  </si>
+  <si>
+    <t>user101</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>A112365246</t>
+  </si>
+  <si>
+    <t>B212365390</t>
+  </si>
+  <si>
+    <t>C112365534</t>
+  </si>
+  <si>
+    <t>D212365678</t>
+  </si>
+  <si>
+    <t>E112365822</t>
+  </si>
+  <si>
+    <t>F112365966</t>
+  </si>
+  <si>
+    <t>G112366110</t>
+  </si>
+  <si>
+    <t>A212366254</t>
+  </si>
+  <si>
+    <t>B112366398</t>
+  </si>
+  <si>
+    <t>A112366542</t>
+  </si>
+  <si>
+    <t>B112366686</t>
+  </si>
+  <si>
+    <t>C112366830</t>
+  </si>
+  <si>
+    <t>A212366974</t>
+  </si>
+  <si>
+    <t>B112367118</t>
+  </si>
+  <si>
+    <t>C112367262</t>
+  </si>
+  <si>
+    <t>D127367256</t>
+  </si>
+  <si>
+    <t>E242367250</t>
+  </si>
+  <si>
+    <t>F157367244</t>
+  </si>
+  <si>
+    <t>G272367238</t>
+  </si>
+  <si>
+    <t>C172367382</t>
+  </si>
+  <si>
+    <t>D187367376</t>
+  </si>
+  <si>
+    <t>E187367520</t>
+  </si>
+  <si>
+    <t>C187367664</t>
+  </si>
+  <si>
+    <t>D287382658</t>
+  </si>
+  <si>
+    <t>E187382802</t>
+  </si>
+  <si>
+    <t>C187382946</t>
+  </si>
+  <si>
+    <t>D187382940</t>
+  </si>
+  <si>
+    <t>C287532934</t>
+  </si>
+  <si>
+    <t>D187533078</t>
+  </si>
+  <si>
+    <t>C287533222</t>
+  </si>
+  <si>
+    <t>D187533362</t>
+  </si>
+  <si>
+    <t>E187533546</t>
+  </si>
+  <si>
+    <t>C187533690</t>
+  </si>
+  <si>
+    <t>D187533834</t>
+  </si>
+  <si>
+    <t>E287533978</t>
+  </si>
+  <si>
+    <t>F187534122</t>
+  </si>
+  <si>
+    <t>G187534266</t>
+  </si>
+  <si>
+    <t>A187534410</t>
+  </si>
+  <si>
+    <t>B287534554</t>
+  </si>
+  <si>
+    <t>A187534698</t>
+  </si>
+  <si>
+    <t>B287534842</t>
+  </si>
+  <si>
+    <t>E187534986</t>
+  </si>
+  <si>
+    <t>F187535130</t>
+  </si>
+  <si>
+    <t>G187535274</t>
+  </si>
+  <si>
+    <t>A187535418</t>
+  </si>
+  <si>
+    <t>B287535562</t>
+  </si>
+  <si>
+    <t>A187535706</t>
+  </si>
+  <si>
+    <t>D187535850</t>
+  </si>
+  <si>
+    <t>E187535994</t>
+  </si>
+  <si>
+    <t>F287536138</t>
+  </si>
+  <si>
+    <t>G187536282</t>
+  </si>
+  <si>
+    <t>A187536426</t>
+  </si>
+  <si>
+    <t>B187536570</t>
+  </si>
+  <si>
+    <t>A187536714</t>
+  </si>
+  <si>
+    <t>B187536858</t>
+  </si>
+  <si>
+    <t>D187537002</t>
+  </si>
+  <si>
+    <t>E187537146</t>
+  </si>
+  <si>
+    <t>F187537290</t>
+  </si>
+  <si>
+    <t>G187537434</t>
+  </si>
+  <si>
+    <t>A287537578</t>
+  </si>
+  <si>
+    <t>B187537722</t>
+  </si>
+  <si>
+    <t>A187537866</t>
+  </si>
+  <si>
+    <t>B187538010</t>
+  </si>
+  <si>
+    <t>F287538154</t>
+  </si>
+  <si>
+    <t>G187538298</t>
+  </si>
+  <si>
+    <t>A187538442</t>
+  </si>
+  <si>
+    <t>B187538586</t>
+  </si>
+  <si>
+    <t>D187538730</t>
+  </si>
+  <si>
+    <t>E287538874</t>
+  </si>
+  <si>
+    <t>F187539018</t>
+  </si>
+  <si>
+    <t>G187539162</t>
+  </si>
+  <si>
+    <t>A187539306</t>
+  </si>
+  <si>
+    <t>B287539450</t>
+  </si>
+  <si>
+    <t>D187539594</t>
+  </si>
+  <si>
+    <t>E287539738</t>
+  </si>
+  <si>
+    <t>F187539882</t>
+  </si>
+  <si>
+    <t>G287540026</t>
+  </si>
+  <si>
+    <t>D187540170</t>
+  </si>
+  <si>
+    <t>E187540314</t>
+  </si>
+  <si>
+    <t>F187540458</t>
+  </si>
+  <si>
+    <t>G287540602</t>
+  </si>
+  <si>
+    <t>A187540746</t>
+  </si>
+  <si>
+    <t>B287540890</t>
+  </si>
+  <si>
+    <t>D187541034</t>
+  </si>
+  <si>
+    <t>E287541178</t>
+  </si>
+  <si>
+    <t>F187541322</t>
+  </si>
+  <si>
+    <t>G187541466</t>
+  </si>
+  <si>
+    <t>A187541610</t>
+  </si>
+  <si>
+    <t>B187541754</t>
+  </si>
+  <si>
+    <t>A187541898</t>
+  </si>
+  <si>
+    <t>B187542042</t>
+  </si>
+  <si>
+    <t>B187542186</t>
+  </si>
+  <si>
+    <t>A187542330</t>
+  </si>
+  <si>
+    <t>B287542474</t>
+  </si>
+  <si>
+    <t>D187542618</t>
+  </si>
+  <si>
+    <t>E187542762</t>
+  </si>
+  <si>
+    <t>F187542906</t>
+  </si>
+  <si>
+    <t>G287543050</t>
+  </si>
+  <si>
+    <t>A187543194</t>
+  </si>
+  <si>
+    <t>B287543338</t>
+  </si>
+  <si>
+    <t>A287543482</t>
+  </si>
+  <si>
+    <t>2024-4-26</t>
+  </si>
+  <si>
+    <t>2024-4-24</t>
+  </si>
+  <si>
+    <t>2024-4-22</t>
+  </si>
+  <si>
+    <t>2024-4-23</t>
+  </si>
+  <si>
+    <t>2024-4-29</t>
+  </si>
+  <si>
+    <t>2024-4-28</t>
+  </si>
+  <si>
+    <t>2024-4-21</t>
+  </si>
+  <si>
+    <t>2024-4-25</t>
+  </si>
+  <si>
+    <t>2024-4-30</t>
+  </si>
+  <si>
+    <t>2024-4-20</t>
+  </si>
+  <si>
+    <t>2024-4-27</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>TY</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>YL</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>JY</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>HL</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>XZ</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>LJ</t>
+  </si>
+  <si>
+    <t>TP0</t>
+  </si>
+  <si>
+    <t>NT0</t>
+  </si>
+  <si>
+    <t>TY0</t>
+  </si>
+  <si>
+    <t>TC0</t>
+  </si>
+  <si>
+    <t>TN0</t>
+  </si>
+  <si>
+    <t>KH0</t>
+  </si>
+  <si>
+    <t>YL0</t>
+  </si>
+  <si>
+    <t>HC0</t>
+  </si>
+  <si>
+    <t>ML0</t>
+  </si>
+  <si>
+    <t>CH0</t>
+  </si>
+  <si>
+    <t>JY0</t>
+  </si>
+  <si>
+    <t>PT0</t>
+  </si>
+  <si>
+    <t>TT0</t>
+  </si>
+  <si>
+    <t>HL0</t>
+  </si>
+  <si>
+    <t>PH0</t>
+  </si>
+  <si>
+    <t>XZ0</t>
+  </si>
+  <si>
+    <t>CY0</t>
+  </si>
+  <si>
+    <t>KM0</t>
+  </si>
+  <si>
+    <t>LJ0</t>
+  </si>
+  <si>
+    <t>範例</t>
+  </si>
+  <si>
+    <t>KL0</t>
+  </si>
+  <si>
+    <t>KL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1476,29 +1978,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1506,30 +2007,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1830,10 +2320,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:G25"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E94" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1841,10 +2331,10 @@
     <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1857,1724 +2347,5066 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E5" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E7" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C8" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E8" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D9" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E9" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="E10" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>40</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" t="s">
         <v>43</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E11" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B12" t="s">
         <v>45</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C12" t="s">
         <v>46</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D12" t="s">
         <v>47</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E12" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>48</v>
       </c>
-      <c r="E10" t="s">
+      <c r="B13" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C13" t="s">
         <v>50</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D13" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E13" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>52</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B14" t="s">
         <v>53</v>
       </c>
-      <c r="E11" t="s">
+      <c r="C14" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D14" t="s">
         <v>55</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E14" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>56</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B15" t="s">
         <v>57</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C15" t="s">
         <v>58</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D15" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="E15" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>60</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
         <v>61</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C16" t="s">
         <v>62</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D16" t="s">
         <v>63</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E16" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B17" t="s">
         <v>65</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C17" t="s">
         <v>66</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D17" t="s">
         <v>67</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E17" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>68</v>
       </c>
-      <c r="E14" t="s">
+      <c r="B18" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C18" t="s">
         <v>70</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D18" t="s">
         <v>71</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E18" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>72</v>
       </c>
-      <c r="D15" t="s">
+      <c r="B19" t="s">
         <v>73</v>
       </c>
-      <c r="E15" t="s">
+      <c r="C19" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D19" t="s">
         <v>75</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E19" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>76</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B20" t="s">
         <v>77</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C20" t="s">
         <v>78</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D20" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="E20" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>80</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B21" t="s">
         <v>81</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C21" t="s">
         <v>82</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D21" t="s">
         <v>83</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E21" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B22" t="s">
         <v>85</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C22" t="s">
         <v>86</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D22" t="s">
         <v>87</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E22" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>88</v>
       </c>
-      <c r="E18" t="s">
+      <c r="B23" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C23" t="s">
         <v>90</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D23" t="s">
         <v>91</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E23" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>92</v>
       </c>
-      <c r="D19" t="s">
+      <c r="B24" t="s">
         <v>93</v>
       </c>
-      <c r="E19" t="s">
+      <c r="C24" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D24" t="s">
         <v>95</v>
       </c>
-      <c r="B20" t="s">
+      <c r="E24" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>96</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B25" t="s">
         <v>97</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C25" t="s">
         <v>98</v>
       </c>
-      <c r="E20" t="s">
+      <c r="D25" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="E25" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>100</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B26" t="s">
         <v>101</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C26" t="s">
         <v>102</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D26" t="s">
         <v>103</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E26" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B27" t="s">
         <v>105</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C27" t="s">
         <v>106</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D27" t="s">
         <v>107</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E27" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>108</v>
       </c>
-      <c r="E22" t="s">
+      <c r="B28" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C28" t="s">
         <v>110</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D28" t="s">
         <v>111</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E28" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>112</v>
       </c>
-      <c r="D23" t="s">
+      <c r="B29" t="s">
         <v>113</v>
       </c>
-      <c r="E23" t="s">
+      <c r="C29" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="D29" t="s">
         <v>115</v>
       </c>
-      <c r="B24" t="s">
+      <c r="E29" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>116</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="D24" t="s">
+      <c r="C30" t="s">
         <v>118</v>
       </c>
-      <c r="E24" t="s">
+      <c r="D30" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="E30" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>120</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B31" t="s">
         <v>121</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C31" t="s">
         <v>122</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D31" t="s">
         <v>123</v>
       </c>
-      <c r="E25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="E31" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>124</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B32" t="s">
         <v>125</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C32" t="s">
         <v>126</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D32" t="s">
         <v>127</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E32" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B33" t="s">
         <v>129</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C33" t="s">
         <v>130</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D33" t="s">
         <v>131</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E33" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>132</v>
       </c>
-      <c r="E27" t="s">
+      <c r="B34" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="C34" t="s">
         <v>134</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D34" t="s">
         <v>135</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E34" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>136</v>
       </c>
-      <c r="D28" t="s">
+      <c r="B35" t="s">
         <v>137</v>
       </c>
-      <c r="E28" t="s">
+      <c r="C35" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="D35" t="s">
         <v>139</v>
       </c>
-      <c r="B29" t="s">
+      <c r="E35" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>140</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B36" t="s">
         <v>141</v>
       </c>
-      <c r="D29" t="s">
+      <c r="C36" t="s">
         <v>142</v>
       </c>
-      <c r="E29" t="s">
+      <c r="D36" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="E36" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>144</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B37" t="s">
         <v>145</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C37" t="s">
         <v>146</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D37" t="s">
         <v>147</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E37" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B38" t="s">
         <v>149</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C38" t="s">
         <v>150</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D38" t="s">
         <v>151</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E38" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>152</v>
       </c>
-      <c r="E31" t="s">
+      <c r="B39" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="C39" t="s">
         <v>154</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D39" t="s">
         <v>155</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E39" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>156</v>
       </c>
-      <c r="D32" t="s">
+      <c r="B40" t="s">
         <v>157</v>
       </c>
-      <c r="E32" t="s">
+      <c r="C40" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="D40" t="s">
         <v>159</v>
       </c>
-      <c r="B33" t="s">
+      <c r="E40" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>325</v>
+      </c>
+      <c r="B41" t="s">
         <v>160</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C41" t="s">
         <v>161</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D41" t="s">
         <v>162</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E41" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>326</v>
+      </c>
+      <c r="B42" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C42" t="s">
         <v>164</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D42" t="s">
         <v>165</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E42" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>327</v>
+      </c>
+      <c r="B43" t="s">
         <v>166</v>
       </c>
-      <c r="D34" t="s">
+      <c r="C43" t="s">
         <v>167</v>
       </c>
-      <c r="E34" t="s">
+      <c r="D43" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="E43" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>328</v>
+      </c>
+      <c r="B44" t="s">
         <v>169</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C44" t="s">
         <v>170</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D44" t="s">
         <v>171</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E44" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>329</v>
+      </c>
+      <c r="B45" t="s">
         <v>172</v>
       </c>
-      <c r="E35" t="s">
+      <c r="C45" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="D45" t="s">
         <v>174</v>
       </c>
-      <c r="B36" t="s">
+      <c r="E45" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>330</v>
+      </c>
+      <c r="B46" t="s">
         <v>175</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C46" t="s">
         <v>176</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D46" t="s">
         <v>177</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E46" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>331</v>
+      </c>
+      <c r="B47" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="C47" t="s">
         <v>179</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D47" t="s">
         <v>180</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E47" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>332</v>
+      </c>
+      <c r="B48" t="s">
         <v>181</v>
       </c>
-      <c r="D37" t="s">
+      <c r="C48" t="s">
         <v>182</v>
       </c>
-      <c r="E37" t="s">
+      <c r="D48" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="E48" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>333</v>
+      </c>
+      <c r="B49" t="s">
         <v>184</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C49" t="s">
         <v>185</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D49" t="s">
         <v>186</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E49" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>334</v>
+      </c>
+      <c r="B50" t="s">
         <v>187</v>
       </c>
-      <c r="E38" t="s">
+      <c r="C50" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="D50" t="s">
         <v>189</v>
       </c>
-      <c r="B39" t="s">
+      <c r="E50" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>335</v>
+      </c>
+      <c r="B51" t="s">
         <v>190</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D51" t="s">
+        <v>189</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>336</v>
+      </c>
+      <c r="B52" t="s">
         <v>191</v>
       </c>
-      <c r="D39" t="s">
+      <c r="C52" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" t="s">
+        <v>165</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>337</v>
+      </c>
+      <c r="B53" t="s">
         <v>192</v>
       </c>
-      <c r="E39" t="s">
+      <c r="C53" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="D53" t="s">
         <v>194</v>
       </c>
-      <c r="B40" t="s">
+      <c r="E53" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>338</v>
+      </c>
+      <c r="B54" t="s">
         <v>195</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C54" t="s">
         <v>196</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D54" t="s">
         <v>197</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E54" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>339</v>
+      </c>
+      <c r="B55" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>419</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="C55" t="s">
         <v>199</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D55" t="s">
         <v>200</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E55" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>340</v>
+      </c>
+      <c r="B56" t="s">
         <v>201</v>
       </c>
-      <c r="E41" t="s">
+      <c r="C56" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>420</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="D56" t="s">
         <v>203</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E56" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>341</v>
+      </c>
+      <c r="B57" t="s">
         <v>204</v>
       </c>
-      <c r="D42" t="s">
+      <c r="C57" t="s">
         <v>205</v>
       </c>
-      <c r="E42" t="s">
+      <c r="D57" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>421</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="E57" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>342</v>
+      </c>
+      <c r="B58" t="s">
         <v>207</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C58" t="s">
         <v>208</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D58" t="s">
         <v>209</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E58" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>343</v>
+      </c>
+      <c r="B59" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>422</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="C59" t="s">
         <v>211</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D59" t="s">
         <v>212</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E59" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>344</v>
+      </c>
+      <c r="B60" t="s">
         <v>213</v>
       </c>
-      <c r="E44" t="s">
+      <c r="C60" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>423</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="D60" t="s">
         <v>215</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E60" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>345</v>
+      </c>
+      <c r="B61" t="s">
         <v>216</v>
       </c>
-      <c r="D45" t="s">
+      <c r="C61" t="s">
         <v>217</v>
       </c>
-      <c r="E45" t="s">
+      <c r="D61" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>424</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="E61" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>346</v>
+      </c>
+      <c r="B62" t="s">
         <v>219</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C62" t="s">
         <v>220</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D62" t="s">
         <v>221</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E62" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="G62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>347</v>
+      </c>
+      <c r="B63" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>425</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="C63" t="s">
         <v>223</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D63" t="s">
         <v>224</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E63" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="G63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>348</v>
+      </c>
+      <c r="B64" t="s">
         <v>225</v>
       </c>
-      <c r="E47" t="s">
+      <c r="C64" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>426</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="D64" t="s">
         <v>227</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E64" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="G64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>349</v>
+      </c>
+      <c r="B65" t="s">
         <v>228</v>
       </c>
-      <c r="D48" t="s">
+      <c r="C65" t="s">
         <v>229</v>
       </c>
-      <c r="E48" t="s">
+      <c r="D65" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>427</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="E65" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="G65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>350</v>
+      </c>
+      <c r="B66" t="s">
         <v>231</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C66" t="s">
         <v>232</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D66" t="s">
         <v>233</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E66" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>351</v>
+      </c>
+      <c r="B67" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>428</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="C67" t="s">
         <v>235</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D67" t="s">
         <v>236</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E67" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="G67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>352</v>
+      </c>
+      <c r="B68" t="s">
         <v>237</v>
       </c>
-      <c r="E50" t="s">
+      <c r="C68" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>429</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="D68" t="s">
         <v>239</v>
       </c>
-      <c r="C51" t="s">
-        <v>236</v>
-      </c>
-      <c r="D51" t="s">
-        <v>237</v>
-      </c>
-      <c r="E51" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>430</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="E68" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="G68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>353</v>
+      </c>
+      <c r="B69" t="s">
         <v>240</v>
       </c>
-      <c r="C52" t="s">
-        <v>204</v>
-      </c>
-      <c r="D52" t="s">
-        <v>205</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="C69" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>431</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="D69" t="s">
         <v>242</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E69" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="G69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>354</v>
+      </c>
+      <c r="B70" t="s">
         <v>243</v>
       </c>
-      <c r="D53" t="s">
+      <c r="C70" t="s">
         <v>244</v>
       </c>
-      <c r="E53" t="s">
+      <c r="D70" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>432</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="E70" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="G70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>355</v>
+      </c>
+      <c r="B71" t="s">
         <v>246</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C71" t="s">
         <v>247</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D71" t="s">
         <v>248</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E71" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>356</v>
+      </c>
+      <c r="B72" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>433</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="C72" t="s">
         <v>250</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D72" t="s">
         <v>251</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E72" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="G72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>357</v>
+      </c>
+      <c r="B73" t="s">
         <v>252</v>
       </c>
-      <c r="E55" t="s">
+      <c r="C73" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>434</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="D73" t="s">
         <v>254</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E73" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="G73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>358</v>
+      </c>
+      <c r="B74" t="s">
         <v>255</v>
       </c>
-      <c r="D56" t="s">
+      <c r="C74" t="s">
         <v>256</v>
       </c>
-      <c r="E56" t="s">
+      <c r="D74" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>435</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="E74" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="G74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>359</v>
+      </c>
+      <c r="B75" t="s">
         <v>258</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C75" t="s">
         <v>259</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D75" t="s">
         <v>260</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E75" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="G75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>360</v>
+      </c>
+      <c r="B76" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>436</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="C76" t="s">
         <v>262</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D76" t="s">
         <v>263</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E76" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="G76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>361</v>
+      </c>
+      <c r="B77" t="s">
         <v>264</v>
       </c>
-      <c r="E58" t="s">
+      <c r="C77" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>437</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="D77" t="s">
         <v>266</v>
       </c>
-      <c r="C59" t="s">
+      <c r="E77" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="G77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>362</v>
+      </c>
+      <c r="B78" t="s">
         <v>267</v>
       </c>
-      <c r="D59" t="s">
+      <c r="C78" t="s">
+        <v>265</v>
+      </c>
+      <c r="D78" t="s">
+        <v>266</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="G78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>363</v>
+      </c>
+      <c r="B79" t="s">
         <v>268</v>
       </c>
-      <c r="E59" t="s">
+      <c r="C79" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>438</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="D79" t="s">
         <v>270</v>
       </c>
-      <c r="C60" t="s">
+      <c r="E79" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="G79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>364</v>
+      </c>
+      <c r="B80" t="s">
         <v>271</v>
       </c>
-      <c r="D60" t="s">
+      <c r="C80" t="s">
         <v>272</v>
       </c>
-      <c r="E60" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>439</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="D80" t="s">
         <v>273</v>
       </c>
-      <c r="C61" t="s">
+      <c r="E80" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="G80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>365</v>
+      </c>
+      <c r="B81" t="s">
         <v>274</v>
       </c>
-      <c r="D61" t="s">
+      <c r="C81" t="s">
         <v>275</v>
       </c>
-      <c r="E61" t="s">
+      <c r="D81" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>440</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="E81" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="G81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>366</v>
+      </c>
+      <c r="B82" t="s">
         <v>277</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C82" t="s">
         <v>278</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D82" t="s">
         <v>279</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E82" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>367</v>
+      </c>
+      <c r="B83" t="s">
+        <v>280</v>
+      </c>
+      <c r="C83" t="s">
+        <v>281</v>
+      </c>
+      <c r="D83" t="s">
+        <v>282</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="G83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>368</v>
+      </c>
+      <c r="B84" t="s">
+        <v>283</v>
+      </c>
+      <c r="C84" t="s">
+        <v>284</v>
+      </c>
+      <c r="D84" t="s">
+        <v>285</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G84">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>369</v>
+      </c>
+      <c r="B85" t="s">
+        <v>286</v>
+      </c>
+      <c r="C85" t="s">
+        <v>287</v>
+      </c>
+      <c r="D85" t="s">
+        <v>288</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="G85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>370</v>
+      </c>
+      <c r="B86" t="s">
+        <v>289</v>
+      </c>
+      <c r="C86" t="s">
+        <v>290</v>
+      </c>
+      <c r="D86" t="s">
+        <v>291</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="G86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>371</v>
+      </c>
+      <c r="B87" t="s">
+        <v>292</v>
+      </c>
+      <c r="C87" t="s">
+        <v>290</v>
+      </c>
+      <c r="D87" t="s">
+        <v>291</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="G87">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>372</v>
+      </c>
+      <c r="B88" t="s">
+        <v>293</v>
+      </c>
+      <c r="C88" t="s">
+        <v>294</v>
+      </c>
+      <c r="D88" t="s">
+        <v>295</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="G88">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>373</v>
+      </c>
+      <c r="B89" t="s">
+        <v>296</v>
+      </c>
+      <c r="C89" t="s">
+        <v>297</v>
+      </c>
+      <c r="D89" t="s">
+        <v>298</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="G89">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>374</v>
+      </c>
+      <c r="B90" t="s">
+        <v>299</v>
+      </c>
+      <c r="C90" t="s">
+        <v>300</v>
+      </c>
+      <c r="D90" t="s">
+        <v>301</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G90">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>375</v>
+      </c>
+      <c r="B91" t="s">
+        <v>302</v>
+      </c>
+      <c r="C91" t="s">
+        <v>275</v>
+      </c>
+      <c r="D91" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>441</v>
-      </c>
-      <c r="B63" t="s">
-        <v>280</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="E91" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="G91">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>376</v>
+      </c>
+      <c r="B92" t="s">
+        <v>303</v>
+      </c>
+      <c r="C92" t="s">
+        <v>304</v>
+      </c>
+      <c r="D92" t="s">
+        <v>305</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="G92">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>377</v>
+      </c>
+      <c r="B93" t="s">
+        <v>306</v>
+      </c>
+      <c r="C93" t="s">
+        <v>297</v>
+      </c>
+      <c r="D93" t="s">
+        <v>298</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="G93">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>378</v>
+      </c>
+      <c r="B94" t="s">
+        <v>307</v>
+      </c>
+      <c r="C94" t="s">
         <v>281</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D94" t="s">
         <v>282</v>
       </c>
-      <c r="E63" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>442</v>
-      </c>
-      <c r="B64" t="s">
-        <v>284</v>
-      </c>
-      <c r="C64" t="s">
-        <v>285</v>
-      </c>
-      <c r="D64" t="s">
-        <v>286</v>
-      </c>
-      <c r="E64" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>443</v>
-      </c>
-      <c r="B65" t="s">
-        <v>288</v>
-      </c>
-      <c r="C65" t="s">
-        <v>289</v>
-      </c>
-      <c r="D65" t="s">
-        <v>290</v>
-      </c>
-      <c r="E65" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>444</v>
-      </c>
-      <c r="B66" t="s">
-        <v>292</v>
-      </c>
-      <c r="C66" t="s">
-        <v>293</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="E94" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="G94">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>379</v>
+      </c>
+      <c r="B95" t="s">
+        <v>308</v>
+      </c>
+      <c r="C95" t="s">
+        <v>309</v>
+      </c>
+      <c r="D95" t="s">
+        <v>310</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="G95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>380</v>
+      </c>
+      <c r="B96" t="s">
+        <v>311</v>
+      </c>
+      <c r="C96" t="s">
+        <v>312</v>
+      </c>
+      <c r="D96" t="s">
+        <v>313</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="G96">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>381</v>
+      </c>
+      <c r="B97" t="s">
+        <v>314</v>
+      </c>
+      <c r="C97" t="s">
         <v>294</v>
       </c>
-      <c r="E66" t="s">
+      <c r="D97" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>445</v>
-      </c>
-      <c r="B67" t="s">
-        <v>296</v>
-      </c>
-      <c r="C67" t="s">
-        <v>297</v>
-      </c>
-      <c r="D67" t="s">
-        <v>298</v>
-      </c>
-      <c r="E67" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>446</v>
-      </c>
-      <c r="B68" t="s">
-        <v>300</v>
-      </c>
-      <c r="C68" t="s">
-        <v>301</v>
-      </c>
-      <c r="D68" t="s">
-        <v>302</v>
-      </c>
-      <c r="E68" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>447</v>
-      </c>
-      <c r="B69" t="s">
-        <v>304</v>
-      </c>
-      <c r="C69" t="s">
-        <v>305</v>
-      </c>
-      <c r="D69" t="s">
-        <v>306</v>
-      </c>
-      <c r="E69" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>448</v>
-      </c>
-      <c r="B70" t="s">
-        <v>308</v>
-      </c>
-      <c r="C70" t="s">
-        <v>309</v>
-      </c>
-      <c r="D70" t="s">
-        <v>310</v>
-      </c>
-      <c r="E70" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>449</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="E97" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="G97">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>382</v>
+      </c>
+      <c r="B98" t="s">
+        <v>315</v>
+      </c>
+      <c r="C98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D98" t="s">
+        <v>317</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="G98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>383</v>
+      </c>
+      <c r="B99" t="s">
+        <v>318</v>
+      </c>
+      <c r="C99" t="s">
         <v>312</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D99" t="s">
         <v>313</v>
       </c>
-      <c r="D71" t="s">
-        <v>314</v>
-      </c>
-      <c r="E71" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>450</v>
-      </c>
-      <c r="B72" t="s">
-        <v>316</v>
-      </c>
-      <c r="C72" t="s">
-        <v>317</v>
-      </c>
-      <c r="D72" t="s">
-        <v>318</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="E99" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="G99">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>384</v>
+      </c>
+      <c r="B100" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>451</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="C100" t="s">
         <v>320</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D100" t="s">
         <v>321</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E100" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="G100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>385</v>
+      </c>
+      <c r="B101" t="s">
         <v>322</v>
       </c>
-      <c r="E73" t="s">
+      <c r="C101" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>452</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="D101" t="s">
         <v>324</v>
       </c>
-      <c r="C74" t="s">
-        <v>325</v>
-      </c>
-      <c r="D74" t="s">
-        <v>326</v>
-      </c>
-      <c r="E74" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>453</v>
-      </c>
-      <c r="B75" t="s">
-        <v>328</v>
-      </c>
-      <c r="C75" t="s">
-        <v>329</v>
-      </c>
-      <c r="D75" t="s">
-        <v>330</v>
-      </c>
-      <c r="E75" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>454</v>
-      </c>
-      <c r="B76" t="s">
-        <v>332</v>
-      </c>
-      <c r="C76" t="s">
-        <v>333</v>
-      </c>
-      <c r="D76" t="s">
-        <v>334</v>
-      </c>
-      <c r="E76" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>455</v>
-      </c>
-      <c r="B77" t="s">
-        <v>336</v>
-      </c>
-      <c r="C77" t="s">
-        <v>337</v>
-      </c>
-      <c r="D77" t="s">
-        <v>338</v>
-      </c>
-      <c r="E77" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>456</v>
-      </c>
-      <c r="B78" t="s">
-        <v>340</v>
-      </c>
-      <c r="C78" t="s">
-        <v>337</v>
-      </c>
-      <c r="D78" t="s">
-        <v>338</v>
-      </c>
-      <c r="E78" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>457</v>
-      </c>
-      <c r="B79" t="s">
-        <v>341</v>
-      </c>
-      <c r="C79" t="s">
-        <v>342</v>
-      </c>
-      <c r="D79" t="s">
-        <v>343</v>
-      </c>
-      <c r="E79" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>458</v>
-      </c>
-      <c r="B80" t="s">
-        <v>345</v>
-      </c>
-      <c r="C80" t="s">
-        <v>346</v>
-      </c>
-      <c r="D80" t="s">
-        <v>347</v>
-      </c>
-      <c r="E80" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>459</v>
-      </c>
-      <c r="B81" t="s">
-        <v>349</v>
-      </c>
-      <c r="C81" t="s">
-        <v>350</v>
-      </c>
-      <c r="D81" t="s">
-        <v>351</v>
-      </c>
-      <c r="E81" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>460</v>
-      </c>
-      <c r="B82" t="s">
-        <v>353</v>
-      </c>
-      <c r="C82" t="s">
-        <v>354</v>
-      </c>
-      <c r="D82" t="s">
-        <v>355</v>
-      </c>
-      <c r="E82" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>461</v>
-      </c>
-      <c r="B83" t="s">
-        <v>357</v>
-      </c>
-      <c r="C83" t="s">
-        <v>358</v>
-      </c>
-      <c r="D83" t="s">
-        <v>359</v>
-      </c>
-      <c r="E83" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>462</v>
-      </c>
-      <c r="B84" t="s">
-        <v>361</v>
-      </c>
-      <c r="C84" t="s">
-        <v>362</v>
-      </c>
-      <c r="D84" t="s">
-        <v>363</v>
-      </c>
-      <c r="E84" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>463</v>
-      </c>
-      <c r="B85" t="s">
-        <v>365</v>
-      </c>
-      <c r="C85" t="s">
-        <v>366</v>
-      </c>
-      <c r="D85" t="s">
-        <v>367</v>
-      </c>
-      <c r="E85" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>464</v>
-      </c>
-      <c r="B86" t="s">
-        <v>369</v>
-      </c>
-      <c r="C86" t="s">
-        <v>370</v>
-      </c>
-      <c r="D86" t="s">
-        <v>371</v>
-      </c>
-      <c r="E86" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>465</v>
-      </c>
-      <c r="B87" t="s">
-        <v>373</v>
-      </c>
-      <c r="C87" t="s">
-        <v>370</v>
-      </c>
-      <c r="D87" t="s">
-        <v>371</v>
-      </c>
-      <c r="E87" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>466</v>
-      </c>
-      <c r="B88" t="s">
-        <v>374</v>
-      </c>
-      <c r="C88" t="s">
-        <v>375</v>
-      </c>
-      <c r="D88" t="s">
-        <v>376</v>
-      </c>
-      <c r="E88" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>467</v>
-      </c>
-      <c r="B89" t="s">
-        <v>378</v>
-      </c>
-      <c r="C89" t="s">
-        <v>379</v>
-      </c>
-      <c r="D89" t="s">
-        <v>380</v>
-      </c>
-      <c r="E89" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>468</v>
-      </c>
-      <c r="B90" t="s">
-        <v>382</v>
-      </c>
-      <c r="C90" t="s">
-        <v>383</v>
-      </c>
-      <c r="D90" t="s">
-        <v>384</v>
-      </c>
-      <c r="E90" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>469</v>
-      </c>
-      <c r="B91" t="s">
-        <v>386</v>
-      </c>
-      <c r="C91" t="s">
-        <v>350</v>
-      </c>
-      <c r="D91" t="s">
-        <v>351</v>
-      </c>
-      <c r="E91" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>470</v>
-      </c>
-      <c r="B92" t="s">
-        <v>387</v>
-      </c>
-      <c r="C92" t="s">
-        <v>388</v>
-      </c>
-      <c r="D92" t="s">
-        <v>389</v>
-      </c>
-      <c r="E92" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>471</v>
-      </c>
-      <c r="B93" t="s">
-        <v>391</v>
-      </c>
-      <c r="C93" t="s">
-        <v>379</v>
-      </c>
-      <c r="D93" t="s">
-        <v>380</v>
-      </c>
-      <c r="E93" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>472</v>
-      </c>
-      <c r="B94" t="s">
-        <v>393</v>
-      </c>
-      <c r="C94" t="s">
-        <v>358</v>
-      </c>
-      <c r="D94" t="s">
-        <v>359</v>
-      </c>
-      <c r="E94" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>473</v>
-      </c>
-      <c r="B95" t="s">
-        <v>395</v>
-      </c>
-      <c r="C95" t="s">
-        <v>396</v>
-      </c>
-      <c r="D95" t="s">
-        <v>397</v>
-      </c>
-      <c r="E95" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>474</v>
-      </c>
-      <c r="B96" t="s">
-        <v>399</v>
-      </c>
-      <c r="C96" t="s">
-        <v>400</v>
-      </c>
-      <c r="D96" t="s">
-        <v>401</v>
-      </c>
-      <c r="E96" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>475</v>
-      </c>
-      <c r="B97" t="s">
-        <v>403</v>
-      </c>
-      <c r="C97" t="s">
-        <v>375</v>
-      </c>
-      <c r="D97" t="s">
-        <v>376</v>
-      </c>
-      <c r="E97" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>476</v>
-      </c>
-      <c r="B98" t="s">
-        <v>405</v>
-      </c>
-      <c r="C98" t="s">
-        <v>406</v>
-      </c>
-      <c r="D98" t="s">
-        <v>407</v>
-      </c>
-      <c r="E98" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>477</v>
-      </c>
-      <c r="B99" t="s">
-        <v>409</v>
-      </c>
-      <c r="C99" t="s">
-        <v>400</v>
-      </c>
-      <c r="D99" t="s">
-        <v>401</v>
-      </c>
-      <c r="E99" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>478</v>
-      </c>
-      <c r="B100" t="s">
-        <v>411</v>
-      </c>
-      <c r="C100" t="s">
-        <v>412</v>
-      </c>
-      <c r="D100" t="s">
-        <v>413</v>
-      </c>
-      <c r="E100" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>479</v>
-      </c>
-      <c r="B101" t="s">
-        <v>415</v>
-      </c>
-      <c r="C101" t="s">
-        <v>416</v>
-      </c>
-      <c r="D101" t="s">
-        <v>417</v>
-      </c>
-      <c r="E101" t="s">
-        <v>418</v>
+      <c r="E101" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G101">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>620</v>
+      </c>
+      <c r="B102" t="s">
+        <v>639</v>
+      </c>
+      <c r="D102">
+        <v>912345678</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="J102" t="s">
+        <v>601</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>621</v>
+      </c>
+      <c r="B103" t="s">
+        <v>639</v>
+      </c>
+      <c r="D103">
+        <v>912345678</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G103">
+        <v>2</v>
+      </c>
+      <c r="J103" t="s">
+        <v>602</v>
+      </c>
+      <c r="K103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>622</v>
+      </c>
+      <c r="B104" t="s">
+        <v>639</v>
+      </c>
+      <c r="D104">
+        <v>912345678</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G104">
+        <v>3</v>
+      </c>
+      <c r="J104" t="s">
+        <v>603</v>
+      </c>
+      <c r="K104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>623</v>
+      </c>
+      <c r="B105" t="s">
+        <v>639</v>
+      </c>
+      <c r="D105">
+        <v>912345678</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G105">
+        <v>4</v>
+      </c>
+      <c r="J105" t="s">
+        <v>604</v>
+      </c>
+      <c r="K105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>624</v>
+      </c>
+      <c r="B106" t="s">
+        <v>639</v>
+      </c>
+      <c r="D106">
+        <v>912345678</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G106">
+        <v>5</v>
+      </c>
+      <c r="J106" t="s">
+        <v>605</v>
+      </c>
+      <c r="K106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>625</v>
+      </c>
+      <c r="B107" t="s">
+        <v>639</v>
+      </c>
+      <c r="D107">
+        <v>912345678</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G107">
+        <v>6</v>
+      </c>
+      <c r="J107" t="s">
+        <v>606</v>
+      </c>
+      <c r="K107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>626</v>
+      </c>
+      <c r="B108" t="s">
+        <v>639</v>
+      </c>
+      <c r="D108">
+        <v>912345678</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G108">
+        <v>7</v>
+      </c>
+      <c r="J108" t="s">
+        <v>607</v>
+      </c>
+      <c r="K108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>627</v>
+      </c>
+      <c r="B109" t="s">
+        <v>639</v>
+      </c>
+      <c r="D109">
+        <v>912345678</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G109">
+        <v>8</v>
+      </c>
+      <c r="J109" t="s">
+        <v>608</v>
+      </c>
+      <c r="K109">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>628</v>
+      </c>
+      <c r="B110" t="s">
+        <v>639</v>
+      </c>
+      <c r="D110">
+        <v>912345678</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G110">
+        <v>9</v>
+      </c>
+      <c r="J110" t="s">
+        <v>609</v>
+      </c>
+      <c r="K110">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>629</v>
+      </c>
+      <c r="B111" t="s">
+        <v>639</v>
+      </c>
+      <c r="D111">
+        <v>912345678</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G111">
+        <v>10</v>
+      </c>
+      <c r="J111" t="s">
+        <v>610</v>
+      </c>
+      <c r="K111">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>621</v>
+      </c>
+      <c r="B112" t="s">
+        <v>639</v>
+      </c>
+      <c r="D112">
+        <v>912345678</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G112">
+        <v>11</v>
+      </c>
+      <c r="J112" t="s">
+        <v>602</v>
+      </c>
+      <c r="K112">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>626</v>
+      </c>
+      <c r="B113" t="s">
+        <v>639</v>
+      </c>
+      <c r="D113">
+        <v>912345678</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G113">
+        <v>12</v>
+      </c>
+      <c r="J113" t="s">
+        <v>607</v>
+      </c>
+      <c r="K113">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>630</v>
+      </c>
+      <c r="B114" t="s">
+        <v>639</v>
+      </c>
+      <c r="D114">
+        <v>912345678</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G114">
+        <v>13</v>
+      </c>
+      <c r="J114" t="s">
+        <v>611</v>
+      </c>
+      <c r="K114">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>631</v>
+      </c>
+      <c r="B115" t="s">
+        <v>639</v>
+      </c>
+      <c r="D115">
+        <v>912345678</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G115">
+        <v>14</v>
+      </c>
+      <c r="J115" t="s">
+        <v>613</v>
+      </c>
+      <c r="K115">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>632</v>
+      </c>
+      <c r="B116" t="s">
+        <v>639</v>
+      </c>
+      <c r="D116">
+        <v>912345678</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G116">
+        <v>15</v>
+      </c>
+      <c r="J116" t="s">
+        <v>612</v>
+      </c>
+      <c r="K116">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>633</v>
+      </c>
+      <c r="B117" t="s">
+        <v>639</v>
+      </c>
+      <c r="D117">
+        <v>912345678</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G117">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
+        <v>614</v>
+      </c>
+      <c r="K117">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>634</v>
+      </c>
+      <c r="B118" t="s">
+        <v>639</v>
+      </c>
+      <c r="D118">
+        <v>912345678</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G118">
+        <v>17</v>
+      </c>
+      <c r="J118" t="s">
+        <v>615</v>
+      </c>
+      <c r="K118">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>640</v>
+      </c>
+      <c r="B119" t="s">
+        <v>639</v>
+      </c>
+      <c r="D119">
+        <v>912345678</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G119">
+        <v>18</v>
+      </c>
+      <c r="J119" t="s">
+        <v>641</v>
+      </c>
+      <c r="K119">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>635</v>
+      </c>
+      <c r="B120" t="s">
+        <v>639</v>
+      </c>
+      <c r="D120">
+        <v>912345678</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G120">
+        <v>19</v>
+      </c>
+      <c r="J120" t="s">
+        <v>616</v>
+      </c>
+      <c r="K120">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>636</v>
+      </c>
+      <c r="B121" t="s">
+        <v>639</v>
+      </c>
+      <c r="D121">
+        <v>912345678</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G121">
+        <v>20</v>
+      </c>
+      <c r="J121" t="s">
+        <v>617</v>
+      </c>
+      <c r="K121">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>637</v>
+      </c>
+      <c r="B122" t="s">
+        <v>639</v>
+      </c>
+      <c r="D122">
+        <v>912345678</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G122">
+        <v>21</v>
+      </c>
+      <c r="J122" t="s">
+        <v>618</v>
+      </c>
+      <c r="K122">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>638</v>
+      </c>
+      <c r="B123" t="s">
+        <v>639</v>
+      </c>
+      <c r="D123">
+        <v>912345678</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G123">
+        <v>22</v>
+      </c>
+      <c r="J123" t="s">
+        <v>619</v>
+      </c>
+      <c r="K123">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A83" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>999</v>
+      </c>
+      <c r="B1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C1" t="str">
+        <f t="shared" ref="C1:C32" si="0">_xlfn.CONCAT(A1,"@gmail.com")</f>
+        <v>999@gmail.com</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>A1+1</f>
+        <v>1000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" si="0"/>
+        <v>1000@gmail.com</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ref="A3:A66" si="1">A2+1</f>
+        <v>1001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>1001@gmail.com</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="1"/>
+        <v>1002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>488</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>1002@gmail.com</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>1003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>487</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>1003@gmail.com</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>1004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>1004@gmail.com</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>1005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>1005@gmail.com</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>1006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>488</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>1006@gmail.com</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>1007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>1007@gmail.com</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>1008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>487</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>1008@gmail.com</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>1009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>487</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>1009@gmail.com</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>1010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>487</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>1010@gmail.com</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>1011</v>
+      </c>
+      <c r="B13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>1011@gmail.com</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>1012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>487</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>1012@gmail.com</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>1013</v>
+      </c>
+      <c r="B15" t="s">
+        <v>487</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>1013@gmail.com</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>1014</v>
+      </c>
+      <c r="B16" t="s">
+        <v>487</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>1014@gmail.com</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>1015</v>
+      </c>
+      <c r="B17" t="s">
+        <v>488</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>1015@gmail.com</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>1016</v>
+      </c>
+      <c r="B18" t="s">
+        <v>487</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>1016@gmail.com</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>1017</v>
+      </c>
+      <c r="B19" t="s">
+        <v>488</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>1017@gmail.com</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>1018</v>
+      </c>
+      <c r="B20" t="s">
+        <v>487</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>1018@gmail.com</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>1019</v>
+      </c>
+      <c r="B21" t="s">
+        <v>487</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>1019@gmail.com</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>1020</v>
+      </c>
+      <c r="B22" t="s">
+        <v>487</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>1020@gmail.com</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>1021</v>
+      </c>
+      <c r="B23" t="s">
+        <v>487</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>1021@gmail.com</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>1022</v>
+      </c>
+      <c r="B24" t="s">
+        <v>488</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>1022@gmail.com</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>1023</v>
+      </c>
+      <c r="B25" t="s">
+        <v>487</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>1023@gmail.com</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>1024</v>
+      </c>
+      <c r="B26" t="s">
+        <v>487</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>1024@gmail.com</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>1025</v>
+      </c>
+      <c r="B27" t="s">
+        <v>487</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>1025@gmail.com</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F27" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>1026</v>
+      </c>
+      <c r="B28" t="s">
+        <v>488</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>1026@gmail.com</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>1027</v>
+      </c>
+      <c r="B29" t="s">
+        <v>487</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>1027@gmail.com</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F29" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>1028</v>
+      </c>
+      <c r="B30" t="s">
+        <v>488</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>1028@gmail.com</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F30" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>1029</v>
+      </c>
+      <c r="B31" t="s">
+        <v>487</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>1029@gmail.com</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="F31" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>1030</v>
+      </c>
+      <c r="B32" t="s">
+        <v>487</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>1030@gmail.com</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F32" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>1031</v>
+      </c>
+      <c r="B33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" ref="C33:C64" si="2">_xlfn.CONCAT(A33,"@gmail.com")</f>
+        <v>1031@gmail.com</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F33" t="s">
+        <v>130</v>
+      </c>
+      <c r="G33" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>1032</v>
+      </c>
+      <c r="B34" t="s">
+        <v>487</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="2"/>
+        <v>1032@gmail.com</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F34" t="s">
+        <v>134</v>
+      </c>
+      <c r="G34" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>1033</v>
+      </c>
+      <c r="B35" t="s">
+        <v>488</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="2"/>
+        <v>1033@gmail.com</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>1034</v>
+      </c>
+      <c r="B36" t="s">
+        <v>487</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="2"/>
+        <v>1034@gmail.com</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="F36" t="s">
+        <v>142</v>
+      </c>
+      <c r="G36" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>1035</v>
+      </c>
+      <c r="B37" t="s">
+        <v>487</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="2"/>
+        <v>1035@gmail.com</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F37" t="s">
+        <v>146</v>
+      </c>
+      <c r="G37" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>1036</v>
+      </c>
+      <c r="B38" t="s">
+        <v>487</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="2"/>
+        <v>1036@gmail.com</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F38" t="s">
+        <v>150</v>
+      </c>
+      <c r="G38" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>1037</v>
+      </c>
+      <c r="B39" t="s">
+        <v>488</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="2"/>
+        <v>1037@gmail.com</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F39" t="s">
+        <v>154</v>
+      </c>
+      <c r="G39" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>1038</v>
+      </c>
+      <c r="B40" t="s">
+        <v>487</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="2"/>
+        <v>1038@gmail.com</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F40" t="s">
+        <v>158</v>
+      </c>
+      <c r="G40" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>1039</v>
+      </c>
+      <c r="B41" t="s">
+        <v>488</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="2"/>
+        <v>1039@gmail.com</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F41" t="s">
+        <v>161</v>
+      </c>
+      <c r="G41" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>1040</v>
+      </c>
+      <c r="B42" t="s">
+        <v>487</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="2"/>
+        <v>1040@gmail.com</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="F42" t="s">
+        <v>164</v>
+      </c>
+      <c r="G42" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>1041</v>
+      </c>
+      <c r="B43" t="s">
+        <v>487</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="2"/>
+        <v>1041@gmail.com</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="F43" t="s">
+        <v>167</v>
+      </c>
+      <c r="G43" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="1"/>
+        <v>1042</v>
+      </c>
+      <c r="B44" t="s">
+        <v>487</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="2"/>
+        <v>1042@gmail.com</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F44" t="s">
+        <v>170</v>
+      </c>
+      <c r="G44" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="1"/>
+        <v>1043</v>
+      </c>
+      <c r="B45" t="s">
+        <v>487</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="2"/>
+        <v>1043@gmail.com</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F45" t="s">
+        <v>173</v>
+      </c>
+      <c r="G45" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="1"/>
+        <v>1044</v>
+      </c>
+      <c r="B46" t="s">
+        <v>488</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="2"/>
+        <v>1044@gmail.com</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="F46" t="s">
+        <v>176</v>
+      </c>
+      <c r="G46" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="1"/>
+        <v>1045</v>
+      </c>
+      <c r="B47" t="s">
+        <v>487</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="2"/>
+        <v>1045@gmail.com</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F47" t="s">
+        <v>179</v>
+      </c>
+      <c r="G47" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="1"/>
+        <v>1046</v>
+      </c>
+      <c r="B48" t="s">
+        <v>487</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="2"/>
+        <v>1046@gmail.com</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F48" t="s">
+        <v>182</v>
+      </c>
+      <c r="G48" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="1"/>
+        <v>1047</v>
+      </c>
+      <c r="B49" t="s">
+        <v>487</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="2"/>
+        <v>1047@gmail.com</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F49" t="s">
+        <v>185</v>
+      </c>
+      <c r="G49" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="1"/>
+        <v>1048</v>
+      </c>
+      <c r="B50" t="s">
+        <v>488</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="2"/>
+        <v>1048@gmail.com</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F50" t="s">
+        <v>188</v>
+      </c>
+      <c r="G50" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="1"/>
+        <v>1049</v>
+      </c>
+      <c r="B51" t="s">
+        <v>487</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="2"/>
+        <v>1049@gmail.com</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="F51" t="s">
+        <v>188</v>
+      </c>
+      <c r="G51" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="1"/>
+        <v>1050</v>
+      </c>
+      <c r="B52" t="s">
+        <v>487</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="2"/>
+        <v>1050@gmail.com</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F52" t="s">
+        <v>164</v>
+      </c>
+      <c r="G52" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="1"/>
+        <v>1051</v>
+      </c>
+      <c r="B53" t="s">
+        <v>487</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="2"/>
+        <v>1051@gmail.com</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F53" t="s">
+        <v>193</v>
+      </c>
+      <c r="G53" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="1"/>
+        <v>1052</v>
+      </c>
+      <c r="B54" t="s">
+        <v>487</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="2"/>
+        <v>1052@gmail.com</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F54" t="s">
+        <v>196</v>
+      </c>
+      <c r="G54" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="1"/>
+        <v>1053</v>
+      </c>
+      <c r="B55" t="s">
+        <v>487</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="2"/>
+        <v>1053@gmail.com</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F55" t="s">
+        <v>199</v>
+      </c>
+      <c r="G55" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="1"/>
+        <v>1054</v>
+      </c>
+      <c r="B56" t="s">
+        <v>487</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="2"/>
+        <v>1054@gmail.com</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F56" t="s">
+        <v>202</v>
+      </c>
+      <c r="G56" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="1"/>
+        <v>1055</v>
+      </c>
+      <c r="B57" t="s">
+        <v>487</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="2"/>
+        <v>1055@gmail.com</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F57" t="s">
+        <v>205</v>
+      </c>
+      <c r="G57" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="1"/>
+        <v>1056</v>
+      </c>
+      <c r="B58" t="s">
+        <v>487</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="2"/>
+        <v>1056@gmail.com</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="F58" t="s">
+        <v>208</v>
+      </c>
+      <c r="G58" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="1"/>
+        <v>1057</v>
+      </c>
+      <c r="B59" t="s">
+        <v>487</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="2"/>
+        <v>1057@gmail.com</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F59" t="s">
+        <v>211</v>
+      </c>
+      <c r="G59" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="1"/>
+        <v>1058</v>
+      </c>
+      <c r="B60" t="s">
+        <v>488</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="2"/>
+        <v>1058@gmail.com</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F60" t="s">
+        <v>214</v>
+      </c>
+      <c r="G60" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="1"/>
+        <v>1059</v>
+      </c>
+      <c r="B61" t="s">
+        <v>487</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="2"/>
+        <v>1059@gmail.com</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F61" t="s">
+        <v>217</v>
+      </c>
+      <c r="G61" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="1"/>
+        <v>1060</v>
+      </c>
+      <c r="B62" t="s">
+        <v>487</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="2"/>
+        <v>1060@gmail.com</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F62" t="s">
+        <v>220</v>
+      </c>
+      <c r="G62" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="1"/>
+        <v>1061</v>
+      </c>
+      <c r="B63" t="s">
+        <v>487</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="2"/>
+        <v>1061@gmail.com</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F63" t="s">
+        <v>223</v>
+      </c>
+      <c r="G63" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="1"/>
+        <v>1062</v>
+      </c>
+      <c r="B64" t="s">
+        <v>488</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="2"/>
+        <v>1062@gmail.com</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F64" t="s">
+        <v>226</v>
+      </c>
+      <c r="G64" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="1"/>
+        <v>1063</v>
+      </c>
+      <c r="B65" t="s">
+        <v>487</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" ref="C65:C101" si="3">_xlfn.CONCAT(A65,"@gmail.com")</f>
+        <v>1063@gmail.com</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F65" t="s">
+        <v>229</v>
+      </c>
+      <c r="G65" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="1"/>
+        <v>1064</v>
+      </c>
+      <c r="B66" t="s">
+        <v>487</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="3"/>
+        <v>1064@gmail.com</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F66" t="s">
+        <v>232</v>
+      </c>
+      <c r="G66" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" ref="A67:A101" si="4">A66+1</f>
+        <v>1065</v>
+      </c>
+      <c r="B67" t="s">
+        <v>487</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="3"/>
+        <v>1065@gmail.com</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F67" t="s">
+        <v>235</v>
+      </c>
+      <c r="G67" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="4"/>
+        <v>1066</v>
+      </c>
+      <c r="B68" t="s">
+        <v>487</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="3"/>
+        <v>1066@gmail.com</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F68" t="s">
+        <v>238</v>
+      </c>
+      <c r="G68" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="4"/>
+        <v>1067</v>
+      </c>
+      <c r="B69" t="s">
+        <v>488</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="3"/>
+        <v>1067@gmail.com</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F69" t="s">
+        <v>241</v>
+      </c>
+      <c r="G69" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="4"/>
+        <v>1068</v>
+      </c>
+      <c r="B70" t="s">
+        <v>487</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="3"/>
+        <v>1068@gmail.com</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F70" t="s">
+        <v>244</v>
+      </c>
+      <c r="G70" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="4"/>
+        <v>1069</v>
+      </c>
+      <c r="B71" t="s">
+        <v>487</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="3"/>
+        <v>1069@gmail.com</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F71" t="s">
+        <v>247</v>
+      </c>
+      <c r="G71" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="4"/>
+        <v>1070</v>
+      </c>
+      <c r="B72" t="s">
+        <v>487</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="3"/>
+        <v>1070@gmail.com</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F72" t="s">
+        <v>250</v>
+      </c>
+      <c r="G72" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="4"/>
+        <v>1071</v>
+      </c>
+      <c r="B73" t="s">
+        <v>488</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="3"/>
+        <v>1071@gmail.com</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F73" t="s">
+        <v>253</v>
+      </c>
+      <c r="G73" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="4"/>
+        <v>1072</v>
+      </c>
+      <c r="B74" t="s">
+        <v>487</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="3"/>
+        <v>1072@gmail.com</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F74" t="s">
+        <v>256</v>
+      </c>
+      <c r="G74" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="4"/>
+        <v>1073</v>
+      </c>
+      <c r="B75" t="s">
+        <v>488</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="3"/>
+        <v>1073@gmail.com</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F75" t="s">
+        <v>259</v>
+      </c>
+      <c r="G75" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="4"/>
+        <v>1074</v>
+      </c>
+      <c r="B76" t="s">
+        <v>487</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="3"/>
+        <v>1074@gmail.com</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F76" t="s">
+        <v>262</v>
+      </c>
+      <c r="G76" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="4"/>
+        <v>1075</v>
+      </c>
+      <c r="B77" t="s">
+        <v>488</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="3"/>
+        <v>1075@gmail.com</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F77" t="s">
+        <v>265</v>
+      </c>
+      <c r="G77" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="4"/>
+        <v>1076</v>
+      </c>
+      <c r="B78" t="s">
+        <v>487</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="3"/>
+        <v>1076@gmail.com</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F78" t="s">
+        <v>265</v>
+      </c>
+      <c r="G78" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="4"/>
+        <v>1077</v>
+      </c>
+      <c r="B79" t="s">
+        <v>487</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="3"/>
+        <v>1077@gmail.com</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F79" t="s">
+        <v>269</v>
+      </c>
+      <c r="G79" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="4"/>
+        <v>1078</v>
+      </c>
+      <c r="B80" t="s">
+        <v>487</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="3"/>
+        <v>1078@gmail.com</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="F80" t="s">
+        <v>272</v>
+      </c>
+      <c r="G80" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="4"/>
+        <v>1079</v>
+      </c>
+      <c r="B81" t="s">
+        <v>488</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="3"/>
+        <v>1079@gmail.com</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="F81" t="s">
+        <v>275</v>
+      </c>
+      <c r="G81" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="4"/>
+        <v>1080</v>
+      </c>
+      <c r="B82" t="s">
+        <v>487</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="3"/>
+        <v>1080@gmail.com</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="F82" t="s">
+        <v>278</v>
+      </c>
+      <c r="G82" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="4"/>
+        <v>1081</v>
+      </c>
+      <c r="B83" t="s">
+        <v>488</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="3"/>
+        <v>1081@gmail.com</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="F83" t="s">
+        <v>281</v>
+      </c>
+      <c r="G83" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="4"/>
+        <v>1082</v>
+      </c>
+      <c r="B84" t="s">
+        <v>487</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="3"/>
+        <v>1082@gmail.com</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="F84" t="s">
+        <v>284</v>
+      </c>
+      <c r="G84" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="4"/>
+        <v>1083</v>
+      </c>
+      <c r="B85" t="s">
+        <v>488</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="3"/>
+        <v>1083@gmail.com</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F85" t="s">
+        <v>287</v>
+      </c>
+      <c r="G85" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="4"/>
+        <v>1084</v>
+      </c>
+      <c r="B86" t="s">
+        <v>487</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="3"/>
+        <v>1084@gmail.com</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F86" t="s">
+        <v>290</v>
+      </c>
+      <c r="G86" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="4"/>
+        <v>1085</v>
+      </c>
+      <c r="B87" t="s">
+        <v>487</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="3"/>
+        <v>1085@gmail.com</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F87" t="s">
+        <v>290</v>
+      </c>
+      <c r="G87" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="4"/>
+        <v>1086</v>
+      </c>
+      <c r="B88" t="s">
+        <v>487</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="3"/>
+        <v>1086@gmail.com</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F88" t="s">
+        <v>294</v>
+      </c>
+      <c r="G88" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="4"/>
+        <v>1087</v>
+      </c>
+      <c r="B89" t="s">
+        <v>487</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="3"/>
+        <v>1087@gmail.com</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F89" t="s">
+        <v>297</v>
+      </c>
+      <c r="G89" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="4"/>
+        <v>1088</v>
+      </c>
+      <c r="B90" t="s">
+        <v>487</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="3"/>
+        <v>1088@gmail.com</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F90" t="s">
+        <v>300</v>
+      </c>
+      <c r="G90" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="4"/>
+        <v>1089</v>
+      </c>
+      <c r="B91" t="s">
+        <v>487</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="3"/>
+        <v>1089@gmail.com</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F91" t="s">
+        <v>275</v>
+      </c>
+      <c r="G91" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="4"/>
+        <v>1090</v>
+      </c>
+      <c r="B92" t="s">
+        <v>487</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="3"/>
+        <v>1090@gmail.com</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F92" t="s">
+        <v>304</v>
+      </c>
+      <c r="G92" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="4"/>
+        <v>1091</v>
+      </c>
+      <c r="B93" t="s">
+        <v>487</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="3"/>
+        <v>1091@gmail.com</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="F93" t="s">
+        <v>297</v>
+      </c>
+      <c r="G93" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="4"/>
+        <v>1092</v>
+      </c>
+      <c r="B94" t="s">
+        <v>488</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="3"/>
+        <v>1092@gmail.com</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="F94" t="s">
+        <v>281</v>
+      </c>
+      <c r="G94" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="4"/>
+        <v>1093</v>
+      </c>
+      <c r="B95" t="s">
+        <v>487</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="3"/>
+        <v>1093@gmail.com</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="F95" t="s">
+        <v>309</v>
+      </c>
+      <c r="G95" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="4"/>
+        <v>1094</v>
+      </c>
+      <c r="B96" t="s">
+        <v>487</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="3"/>
+        <v>1094@gmail.com</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="F96" t="s">
+        <v>312</v>
+      </c>
+      <c r="G96" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="4"/>
+        <v>1095</v>
+      </c>
+      <c r="B97" t="s">
+        <v>487</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="3"/>
+        <v>1095@gmail.com</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="F97" t="s">
+        <v>294</v>
+      </c>
+      <c r="G97" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="4"/>
+        <v>1096</v>
+      </c>
+      <c r="B98" t="s">
+        <v>488</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="3"/>
+        <v>1096@gmail.com</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="F98" t="s">
+        <v>316</v>
+      </c>
+      <c r="G98" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="4"/>
+        <v>1097</v>
+      </c>
+      <c r="B99" t="s">
+        <v>487</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="3"/>
+        <v>1097@gmail.com</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F99" t="s">
+        <v>312</v>
+      </c>
+      <c r="G99" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="4"/>
+        <v>1098</v>
+      </c>
+      <c r="B100" t="s">
+        <v>488</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="3"/>
+        <v>1098@gmail.com</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="F100" t="s">
+        <v>320</v>
+      </c>
+      <c r="G100" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="4"/>
+        <v>1099</v>
+      </c>
+      <c r="B101" t="s">
+        <v>488</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="3"/>
+        <v>1099@gmail.com</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="F101" t="s">
+        <v>323</v>
+      </c>
+      <c r="G101" t="s">
+        <v>486</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>